--- a/Accounting_FormsFillingAssistant_Tests/test_Resources/Test_DB_3.xlsx
+++ b/Accounting_FormsFillingAssistant_Tests/test_Resources/Test_DB_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EkaterinaSkibina\source\repos\Accounting_FormsFillingAssistant\Accounting_FormsFillingAssistant_Tests\test_Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63A3FD69-F98B-4381-AF34-39BD93DFE845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72B88F61-814C-46DD-8A00-1F084BC46298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1044" yWindow="2496" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{CF20FDDA-53BB-43C5-A81B-400DB4A1BBFE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BB0563-C5D8-4F1A-AC52-91F6D5C15025}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F4"/>
@@ -649,6 +652,23 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
